--- a/support/WP3-List of KPIs.xlsx
+++ b/support/WP3-List of KPIs.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.daniel\workspace\rezbuild\support\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F2724-0068-4D79-A469-C29D8BF637CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7488" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Economic KPIs" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Energy KPIs" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Environmental KPIs" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Social KPIs" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Comfort KPIs" sheetId="5" r:id="rId7"/>
+    <sheet name="Economic KPIs" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy KPIs" sheetId="2" r:id="rId2"/>
+    <sheet name="Environmental KPIs" sheetId="3" r:id="rId3"/>
+    <sheet name="Social KPIs" sheetId="4" r:id="rId4"/>
+    <sheet name="Comfort KPIs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -280,7 +289,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Not really, because it's an objective evaluation process that consists in the study of the technical and environmental impact of an intervention. The costs and the economic values are only a part of the overall vision.  </t>
     </r>
@@ -447,20 +458,20 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="5"/>
+        <color rgb="FF4A452A"/>
         <rFont val="&amp;quot"/>
-        <b/>
-        <color rgb="FF4A452A"/>
-        <sz val="5.0"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4A452A"/>
         <rFont val="&amp;quot"/>
-        <b/>
-        <color rgb="FF4A452A"/>
-        <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve"> of floor area</t>
     </r>
@@ -471,11 +482,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="5"/>
+        <color rgb="FF4A452A"/>
         <rFont val="&amp;quot"/>
-        <b/>
-        <color rgb="FF4A452A"/>
-        <sz val="5.0"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>2</t>
     </r>
@@ -751,81 +762,102 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF4A452A"/>
       <name val="Verdana"/>
     </font>
-    <font/>
     <font>
-      <sz val="7.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF4A452A"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF4A452A"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF4A452A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF4A452A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF4A452A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF4A452A"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="5"/>
+      <color rgb="FF4A452A"/>
+      <name val="&amp;quot"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4A452A"/>
+      <name val="&amp;quot"/>
     </font>
   </fonts>
   <fills count="6">
@@ -833,7 +865,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -861,533 +893,837 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.0"/>
-    <col customWidth="1" min="2" max="2" width="14.29"/>
-    <col customWidth="1" min="3" max="3" width="39.71"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="143.71"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="143.6640625" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>0.1</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2360,397 +2696,395 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.0"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="81.57"/>
-    <col customWidth="1" min="4" max="26" width="10.71"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="4" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="20" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3707,36 +4041,32 @@
   <mergeCells count="1">
     <mergeCell ref="A26:B26"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.71"/>
-    <col customWidth="1" min="2" max="26" width="10.71"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3744,20 +4074,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4743,463 +5073,476 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="39.86"/>
-    <col customWidth="1" min="5" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="C5" s="28" t="s">
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27" t="s">
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="C9" s="28" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="C11" s="28" t="s">
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="C12" s="28" t="s">
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="C13" s="28" t="s">
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="27" t="s">
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="C15" s="28" t="s">
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="C16" s="28" t="s">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="C17" s="28" t="s">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="C18" s="28" t="s">
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27" t="s">
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27" t="s">
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28" t="s">
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28" t="s">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="29" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="28" t="s">
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="28" t="s">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="28" t="s">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28" t="s">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="28" t="s">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="28" t="s">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="28" t="s">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="28" t="s">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="28" t="s">
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="28" t="s">
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="28" t="s">
+    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="28" t="s">
+    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="28" t="s">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="28" t="s">
+    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="28" t="s">
+    <row r="39" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="28" t="s">
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="28" t="s">
+    <row r="41" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="28" t="s">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="28" t="s">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="28" t="s">
+    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="28" t="s">
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="28" t="s">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -6154,6 +6497,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B14:B18"/>
@@ -6163,110 +6507,110 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.71"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="26" width="10.71"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="29"/>
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="29"/>
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -7257,9 +7601,7 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>